--- a/Data/EC/NIT-9014757462.xlsx
+++ b/Data/EC/NIT-9014757462.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC8A23D-95D0-4937-A53F-81AFBC751FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EDA9CF-6818-413E-8040-9288C570BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7BA2287-E54B-4C9C-B886-FA81371F8B89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37ED1CB8-DE6C-4FA5-A646-9E2CD24104B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,70 +65,70 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9265520</t>
+  </si>
+  <si>
+    <t>NAVIS JOSE CARO CARO</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>73145412</t>
   </si>
   <si>
     <t>JOSE JESUS ORTIZ MARTINEZ</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>9265520</t>
-  </si>
-  <si>
-    <t>NAVIS JOSE CARO CARO</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E816B2-F906-6AA8-E91D-F703EDFB292E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96230796-B6AA-B3F9-95F8-5DA148101665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B7F12-FE96-4CCC-AD1F-09F1A5948EE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B780B63-009E-4683-9E7D-5B3C83FA5B09}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>37333</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1177,13 +1177,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1200,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1246,10 +1246,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1292,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1361,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1384,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>37333</v>
       </c>
       <c r="G30" s="18">
         <v>1000000</v>
@@ -1407,13 +1407,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1430,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1453,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1476,13 +1476,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1499,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1522,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1545,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1568,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1591,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1614,13 +1614,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1637,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1660,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1683,13 +1683,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1706,13 +1706,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1729,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1752,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>37333</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
         <v>1000000</v>
@@ -1775,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="24">
-        <v>37333</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="24">
         <v>1000000</v>

--- a/Data/EC/NIT-9014757462.xlsx
+++ b/Data/EC/NIT-9014757462.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EDA9CF-6818-413E-8040-9288C570BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44441F21-23AE-47FD-810C-D594A5179011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37ED1CB8-DE6C-4FA5-A646-9E2CD24104B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78764B39-969C-4810-885A-4D7E3F271741}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,70 +65,70 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73145412</t>
+  </si>
+  <si>
+    <t>JOSE JESUS ORTIZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
     <t>9265520</t>
   </si>
   <si>
     <t>NAVIS JOSE CARO CARO</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>73145412</t>
-  </si>
-  <si>
-    <t>JOSE JESUS ORTIZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -227,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96230796-B6AA-B3F9-95F8-5DA148101665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740BA1E6-53C1-5E23-2D29-3A6B5E954904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B780B63-009E-4683-9E7D-5B3C83FA5B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED324D4-052B-4822-A1DF-EC113A55F275}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37333</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1154,13 +1154,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1200,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1246,10 +1246,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1292,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1338,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1384,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
-        <v>37333</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
         <v>1000000</v>
@@ -1407,13 +1407,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1430,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1453,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1476,13 +1476,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1499,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1522,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1545,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1568,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1591,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1614,13 +1614,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1637,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1660,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1683,13 +1683,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1706,13 +1706,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1729,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1752,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>37333</v>
       </c>
       <c r="G46" s="18">
         <v>1000000</v>
@@ -1775,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="24">
-        <v>40000</v>
+        <v>37333</v>
       </c>
       <c r="G47" s="24">
         <v>1000000</v>
